--- a/boomExcel.xlsx
+++ b/boomExcel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>TEST 2 ISAK</t>
+  </si>
+  <si>
+    <t>Filip Tomic</t>
+  </si>
+  <si>
+    <t>wewf</t>
+  </si>
+  <si>
+    <t>wefwef</t>
+  </si>
+  <si>
+    <t>sefseerf</t>
+  </si>
+  <si>
+    <t>adadad</t>
+  </si>
+  <si>
+    <t>afawefawfwf</t>
+  </si>
+  <si>
+    <t>AAAAAA</t>
+  </si>
+  <si>
+    <t>JEL RADIII</t>
   </si>
 </sst>
 </file>
@@ -459,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -574,6 +598,52 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
     </row>
